--- a/2017_b/sd/exam3/RubricaExamen3.xlsx
+++ b/2017_b/sd/exam3/RubricaExamen3.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\all-exams\2017_b\sd\exam3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rubrica" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Evaluación" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Rubrica" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluación" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Rubrica!$A$1:$I$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Rubrica!$A$1:$I$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Rubrica!$A$1:$I$13</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,159 +33,158 @@
     <t xml:space="preserve">Asignación </t>
   </si>
   <si>
-    <t xml:space="preserve">Proyecto Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objetivo Terminal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivel 4 - Ejemplar (5.0-4.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivel 3 - Proeficiente (4.4-4.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivel 2 - En Desarrollo (3.9-3.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivel 1 - Inicial (2.9-0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso apropiado de las técnicas y herramientas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presenta un documento de acuerdo con las normas establecidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presenta un informe del examen de acuerdo a las normas establecidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presenta un informe con una o dos faltas a las normas establecidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presenta un informe con mas de dos faltas a las normas establecidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No presenta un informe del examen de acuerdo a las normas establecidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificar los pasos necesarios para el aprovisionamiento de un infraestructura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifica la totalidad de los pasos para el aprovisionamiento</t>
+    <t>Objetivo Terminal</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Nivel 4 - Ejemplar (5.0-4.5)</t>
+  </si>
+  <si>
+    <t>Nivel 3 - Proeficiente (4.4-4.0)</t>
+  </si>
+  <si>
+    <t>Nivel 2 - En Desarrollo (3.9-3.0)</t>
+  </si>
+  <si>
+    <t>Nivel 1 - Inicial (2.9-0)</t>
+  </si>
+  <si>
+    <t>Uso apropiado de las técnicas y herramientas</t>
+  </si>
+  <si>
+    <t>Presenta un documento de acuerdo con las normas establecidas</t>
+  </si>
+  <si>
+    <t>Presenta un informe del examen de acuerdo a las normas establecidas</t>
+  </si>
+  <si>
+    <t>Presenta un informe con una o dos faltas a las normas establecidad</t>
+  </si>
+  <si>
+    <t>Presenta un informe con mas de dos faltas a las normas establecidad</t>
+  </si>
+  <si>
+    <t>No presenta un informe del examen de acuerdo a las normas establecidas</t>
+  </si>
+  <si>
+    <t>Identificar los pasos necesarios para el aprovisionamiento de un infraestructura</t>
+  </si>
+  <si>
+    <t>Identifica la totalidad de los pasos para el aprovisionamiento</t>
   </si>
   <si>
     <t xml:space="preserve">No identifica uno de los pasos para el aprovisionamiento </t>
   </si>
   <si>
-    <t xml:space="preserve">No identifica dos o mas pasos para el aprovisionamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No identifica los pasos para el aprovisionamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incorporar la técnica utilizando una herramienta computacional</t>
+    <t>No identifica dos o mas pasos para el aprovisionamiento</t>
+  </si>
+  <si>
+    <t>No identifica los pasos para el aprovisionamiento</t>
+  </si>
+  <si>
+    <t>Incorporar la técnica utilizando una herramienta computacional</t>
   </si>
   <si>
     <t xml:space="preserve">Define en forma correcta la instalación y configuración de servicios  </t>
   </si>
   <si>
-    <t xml:space="preserve">Define en forma correcta la instalación y configuración de todos los servicios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define la instalación y configuración de servicios con uno o dos errores que no permiten el despliegue por separado de los servicios</t>
+    <t>Define en forma correcta la instalación y configuración de todos los servicios</t>
+  </si>
+  <si>
+    <t>Define la instalación y configuración de servicios con uno o dos errores que no permiten el despliegue por separado de los servicios</t>
   </si>
   <si>
     <t xml:space="preserve">Define la instalación y configuración de servicios tres o más errores que no permiten el despliegue por separado de los servicios </t>
   </si>
   <si>
-    <t xml:space="preserve">No define en forma correcta la instalación y configuración de ningún servicio</t>
+    <t>No define en forma correcta la instalación y configuración de ningún servicio</t>
   </si>
   <si>
     <t xml:space="preserve">Define en forma correcta la infraestructura, conectando múltiples servicios y haciendo uso de volúmenes compartidos </t>
   </si>
   <si>
-    <t xml:space="preserve">Define en forma correcta la configuración e instalación de aplicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define la configuración e instalación de aplicaciones con uno o dos errores que no permite el despliegue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define la configuración e instalación de aplicaciones  mas de dos errores que no permite el despliegue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No define en forma correcta la configuración e instalación de aplicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplea repositorios en internet y documenta las tareas de aprovisionamiento</t>
+    <t>Define en forma correcta la configuración e instalación de aplicaciones</t>
+  </si>
+  <si>
+    <t>Define la configuración e instalación de aplicaciones con uno o dos errores que no permite el despliegue</t>
+  </si>
+  <si>
+    <t>Define la configuración e instalación de aplicaciones  mas de dos errores que no permite el despliegue</t>
+  </si>
+  <si>
+    <t>No define en forma correcta la configuración e instalación de aplicaciones</t>
+  </si>
+  <si>
+    <t>Emplea repositorios en internet y documenta las tareas de aprovisionamiento</t>
   </si>
   <si>
     <t xml:space="preserve">Emplea repositorios en internet </t>
   </si>
   <si>
-    <t xml:space="preserve">No emplea repositorios en internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplicar las herramientas correctamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplear estrategias para la detección y correción de errores en el despliegue de infraestructura y aplicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplea estrategias que le permiten detectar y corregir la totalidad de errores en el despliegue de infraestructura y aplicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplea estrategias que le permiten detectar errores pero no corrige uno de ellos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplea estrategias para detectar errores pero no es capaz de corregirlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No emplea estrategias para detectar y corregir errores en el despliegue de infraestructura y aplicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integración de herramientas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir evidencias del aprovisionamiento automático que permite Integrar una tecnología de balanceo de carga con múltiples servicios web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logra integrar correctamente las tecnologías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No integra las tecnologías</t>
+    <t>No emplea repositorios en internet</t>
+  </si>
+  <si>
+    <t>Aplicar las herramientas correctamente</t>
+  </si>
+  <si>
+    <t>Emplear estrategias para la detección y correción de errores en el despliegue de infraestructura y aplicaciones</t>
+  </si>
+  <si>
+    <t>Emplea estrategias que le permiten detectar y corregir la totalidad de errores en el despliegue de infraestructura y aplicaciones</t>
+  </si>
+  <si>
+    <t>Emplea estrategias que le permiten detectar errores pero no corrige uno de ellos</t>
+  </si>
+  <si>
+    <t>Emplea estrategias para detectar errores pero no es capaz de corregirlos</t>
+  </si>
+  <si>
+    <t>No emplea estrategias para detectar y corregir errores en el despliegue de infraestructura y aplicaciones</t>
+  </si>
+  <si>
+    <t>Integración de herramientas</t>
+  </si>
+  <si>
+    <t>Incluir evidencias del aprovisionamiento automático que permite Integrar una tecnología de balanceo de carga con múltiples servicios web</t>
+  </si>
+  <si>
+    <t>Logra integrar correctamente las tecnologías</t>
+  </si>
+  <si>
+    <t>No integra las tecnologías</t>
   </si>
   <si>
     <t xml:space="preserve">Define en forma correcta la configuración e instalación de servicios </t>
   </si>
   <si>
-    <t xml:space="preserve">Define en forma correcta la infraestructura, conectando múltiples servicios y haciendo uso de volúmenes compartidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nota</t>
+    <t>Define en forma correcta la infraestructura, conectando múltiples servicios y haciendo uso de volúmenes compartidos</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Examen 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,22 +193,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -221,7 +208,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -229,7 +216,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -253,132 +240,399 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
+    <col min="1" max="1" width="21.140625"/>
+    <col min="2" max="2" width="22.28515625"/>
+    <col min="3" max="3" width="10.42578125"/>
+    <col min="4" max="4" width="27.85546875"/>
+    <col min="5" max="5" width="28.28515625"/>
+    <col min="6" max="6" width="26.7109375"/>
+    <col min="7" max="7" width="24.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -386,7 +640,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -395,279 +649,271 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" spans="1:7" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="5" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="5" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
+    <col min="1" max="1" width="8.7109375"/>
+    <col min="2" max="2" width="27.140625"/>
+    <col min="3" max="3" width="15.140625"/>
+    <col min="4" max="4" width="15.42578125"/>
+    <col min="5" max="5" width="15.7109375"/>
+    <col min="6" max="6" width="17.140625"/>
+    <col min="7" max="7" width="16.140625"/>
+    <col min="8" max="8" width="16"/>
+    <col min="9" max="9" width="16.42578125"/>
+    <col min="10" max="10" width="13.42578125"/>
+    <col min="11" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
         <v>0.15</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>0.15</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="7">
         <v>0.1</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>0.2</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>0.15</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="7">
         <v>0.1</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="7">
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -677,10 +923,10 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -692,7 +938,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -704,7 +950,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -716,7 +962,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -728,7 +974,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -740,7 +986,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -752,7 +998,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -764,7 +1010,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -776,7 +1022,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -788,7 +1034,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -801,12 +1047,7 @@
       <c r="J14" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>